--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -112,10 +112,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>help</t>
@@ -1286,25 +1286,25 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.6883116883116883</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L12">
         <v>159</v>
       </c>
       <c r="M12">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1386,25 +1386,25 @@
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.600609756097561</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1412,13 +1412,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:17">
